--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,15 +55,15 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -73,28 +73,34 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>family</t>
@@ -103,133 +109,106 @@
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -593,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -736,13 +715,13 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +741,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +793,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +845,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +871,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.683982683982684</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -918,13 +897,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6571428571428571</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -944,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6438356164383562</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -996,13 +975,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6305084745762712</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1022,13 +1001,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6222222222222222</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1048,13 +1027,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6176470588235294</v>
+        <v>0.6276083467094703</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>782</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>782</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1074,13 +1053,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6171749598715891</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L17">
-        <v>769</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>769</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>477</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1100,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6171428571428571</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1126,13 +1105,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5692307692307692</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1152,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1178,25 +1157,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.543859649122807</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>31</v>
-      </c>
-      <c r="M21">
-        <v>31</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1204,13 +1183,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.53125</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1230,13 +1209,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5138888888888888</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1256,13 +1235,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1282,13 +1261,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4901960784313725</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1308,13 +1287,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4819277108433735</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1334,13 +1313,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4786324786324787</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1360,13 +1339,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4730538922155689</v>
+        <v>0.46</v>
       </c>
       <c r="L28">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1378,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1386,13 +1365,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4426229508196721</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1412,13 +1391,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4360902255639098</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1438,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4197530864197531</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1464,13 +1443,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4126984126984127</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1482,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1490,13 +1469,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.41</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1508,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1516,13 +1495,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3734939759036144</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1534,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1542,13 +1521,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3421052631578947</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1560,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1568,25 +1547,25 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3415233415233415</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L36">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>268</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1594,13 +1573,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.311284046692607</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L37">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1612,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1620,13 +1599,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3082706766917293</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1638,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1646,13 +1625,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2679425837320574</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L39">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1664,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1672,13 +1651,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2602739726027397</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L40">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1690,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>540</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1698,13 +1677,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2446043165467626</v>
+        <v>0.2217438105489774</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1716,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>105</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1724,13 +1703,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2357373519913886</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L42">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1742,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>710</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1750,13 +1729,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2222222222222222</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1768,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>84</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1776,13 +1755,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2178217821782178</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1794,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>79</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1802,13 +1781,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2100313479623825</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L45">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="M45">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1820,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>252</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1828,7 +1807,7 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2072072072072072</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="L46">
         <v>23</v>
@@ -1846,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1854,13 +1833,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1854304635761589</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1872,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>123</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1880,25 +1859,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.180306905370844</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L48">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>641</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1906,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1677852348993289</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1924,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>124</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1932,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1483443708609272</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L50">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1950,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>643</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1958,13 +1937,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.134020618556701</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1976,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>252</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1984,13 +1963,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1083743842364532</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2002,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>181</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2010,13 +1989,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1046228710462287</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L53">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2028,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>368</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2036,13 +2015,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1033210332103321</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2054,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>243</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2062,25 +2041,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.09973045822102426</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>334</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2088,13 +2067,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.09663865546218488</v>
+        <v>0.05037313432835821</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2106,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>215</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2114,13 +2093,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.09318181818181819</v>
+        <v>0.02938634399308557</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2132,189 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58">
-        <v>0.08148148148148149</v>
-      </c>
-      <c r="L58">
-        <v>22</v>
-      </c>
-      <c r="M58">
-        <v>22</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59">
-        <v>0.06682577565632458</v>
-      </c>
-      <c r="L59">
-        <v>28</v>
-      </c>
-      <c r="M59">
-        <v>28</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K60">
-        <v>0.06140350877192982</v>
-      </c>
-      <c r="L60">
-        <v>28</v>
-      </c>
-      <c r="M60">
-        <v>28</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K61">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L61">
-        <v>41</v>
-      </c>
-      <c r="M61">
-        <v>42</v>
-      </c>
-      <c r="N61">
-        <v>0.98</v>
-      </c>
-      <c r="O61">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K62">
-        <v>0.05322128851540616</v>
-      </c>
-      <c r="L62">
-        <v>57</v>
-      </c>
-      <c r="M62">
-        <v>58</v>
-      </c>
-      <c r="N62">
-        <v>0.98</v>
-      </c>
-      <c r="O62">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63">
-        <v>0.04243542435424354</v>
-      </c>
-      <c r="L63">
-        <v>23</v>
-      </c>
-      <c r="M63">
-        <v>23</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K64">
-        <v>0.0233362143474503</v>
-      </c>
-      <c r="L64">
-        <v>27</v>
-      </c>
-      <c r="M64">
-        <v>27</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
